--- a/Document/Table_Order.xlsx
+++ b/Document/Table_Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="176">
   <si>
     <t>№</t>
   </si>
@@ -65,18 +65,12 @@
     <t>ContractNo</t>
   </si>
   <si>
-    <t>Гэрээний дугаар</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Гэрээ дуусах өдөр</t>
-  </si>
-  <si>
     <t>CurCode</t>
   </si>
   <si>
@@ -92,15 +86,9 @@
     <t>CreateDate</t>
   </si>
   <si>
-    <t>Үүсэгсэн огноо</t>
-  </si>
-  <si>
     <t>Default : TxnDate</t>
   </si>
   <si>
-    <t>Үүсэгсэн огноо цаг</t>
-  </si>
-  <si>
     <t>Default : SystemDateTime</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>Default : UserNo</t>
   </si>
   <si>
-    <t>PostDate</t>
-  </si>
-  <si>
     <t>ProdNo</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>ЗАХИАЛГЫН ҮНДСЭН БҮРТГЭЛ</t>
   </si>
   <si>
-    <t>Захиалга өгсөн үйлчлүүлэгч</t>
-  </si>
-  <si>
     <t>Харилцагчийн жагсаалт хайлтаас сонголт хийнэ. Mandatory</t>
   </si>
   <si>
@@ -149,15 +131,6 @@
     <t>Default: MNT</t>
   </si>
   <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>Гэрээ үйлчлэх өдөр</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
     <t>Захиалгад хамрагдах хүний тоо</t>
   </si>
   <si>
@@ -186,21 +159,6 @@
   </si>
   <si>
     <t>Захиалгын дугаар</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>Захиалгын үйлчилгээний эхлэх хугацаа</t>
-  </si>
-  <si>
-    <t>Default: NowTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Захиалгын үйлчилгээ дуусах хугацаа</t>
   </si>
   <si>
     <t>OrderProduct</t>
@@ -257,11 +215,6 @@
     <t>OrderType</t>
   </si>
   <si>
-    <t>Захиалгын төрөл 
-0 - Зөвхөн захиалга
-1 - Захиалга + төлбөртэй</t>
-  </si>
-  <si>
     <t>nvarchar2</t>
   </si>
   <si>
@@ -322,24 +275,291 @@
     <t>Захиалгын гэрээний дугаар</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Төлөв
+    <t>Төлөв
 0 - Шинэ
-1 - Зөвшөөрсөн
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 - Үйлчилгээ авсан
+1 - Баталгаажсан
 8 - Хугаца дууссан
 9 - Цуцлагдсан</t>
-    </r>
+  </si>
+  <si>
+    <t>Захиалгын төрөл 
+0 - Due at service - Үйлчилгээ авахдаа төлбөрөө хийнэ 
+1 - Paid order - Төлбөртэй захиалга / Гэрээт захиалга</t>
+  </si>
+  <si>
+    <t>SeqNo</t>
+  </si>
+  <si>
+    <t>OrderAmountMin</t>
+  </si>
+  <si>
+    <t>OrderAmountMax</t>
+  </si>
+  <si>
+    <t>OrderBalance</t>
+  </si>
+  <si>
+    <t>Захиалгын дагуу авсан үйлчилгээний дүн</t>
+  </si>
+  <si>
+    <t>Захиалгын үнийн дүнгийн доод хязгаар</t>
+  </si>
+  <si>
+    <t>Захиалгын үнийн дүнгийн дээд хязгаар</t>
+  </si>
+  <si>
+    <t>Хүчинтэй хугацааны өдөр цаг. Эхлэх</t>
+  </si>
+  <si>
+    <t>Хүчинтэй хугацааны өдөр цаг. Дуусах</t>
+  </si>
+  <si>
+    <t>GraceHoursStart</t>
+  </si>
+  <si>
+    <t>GraceHoursEnd</t>
+  </si>
+  <si>
+    <t>захиалгаа баталгаажуулчихсан үед expire хийх хүлээх цаг</t>
+  </si>
+  <si>
+    <t>захиалгаа баталгаажуулаагүй үед expire хийх хүлээх цаг</t>
+  </si>
+  <si>
+    <t>ChannelID</t>
+  </si>
+  <si>
+    <t>OrderContactInfo</t>
+  </si>
+  <si>
+    <t>Захиалагчийн мэдээлэл (Утасны дугаар)</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Хэрэв Виртуаль сувагаар орж ирсэн байвал энэ ID</t>
+  </si>
+  <si>
+    <t>Захиалга өгсөн үйлчлүүлэгч. Хэрэв захиалгын төрөл нь 1  байх үед заавал CustNo-г сонгоно учир нь санхүүгийн төлбөрийн асуудал үүснэ</t>
+  </si>
+  <si>
+    <t>NVarchar2</t>
+  </si>
+  <si>
+    <t>PriceType</t>
+  </si>
+  <si>
+    <t>Үнээ захиалгын дагуу явах эсэх
+0 - Захиалгын дагуу үнэ байхгүй. Үйлчилгээ авах үеийнхээр
+1 - Захиалгын дагуу үнээр борлуулалт хийнэ</t>
+  </si>
+  <si>
+    <t>DiscountID</t>
+  </si>
+  <si>
+    <t>Хөнгөлөлтийн дүрэмийн ID</t>
+  </si>
+  <si>
+    <t>DiscountType</t>
+  </si>
+  <si>
+    <t>Хөнгөлөлтийн төрөл
+ 0 - Хөнгөлөлт байхгүй
+1 - Хувиар хөнгөлөнө
+2 - Дүнгээр хөнгөлөнө</t>
+  </si>
+  <si>
+    <t>DicountAmount</t>
+  </si>
+  <si>
+    <t>Хөнгөлөлтийн дүн</t>
+  </si>
+  <si>
+    <t>ExpireDateTime</t>
+  </si>
+  <si>
+    <t>ExpireNote</t>
+  </si>
+  <si>
+    <t>ExpireUserNo</t>
+  </si>
+  <si>
+    <t>Хугацаа дууссан огноо цаг</t>
+  </si>
+  <si>
+    <t>Хугацаа дууссан  тайлбар</t>
+  </si>
+  <si>
+    <t>Хугацаа дууссан  хэрэглэгч</t>
+  </si>
+  <si>
+    <t>ConfirmDateTime</t>
+  </si>
+  <si>
+    <t>ConfirmNote</t>
+  </si>
+  <si>
+    <t>ConfirmUserNo</t>
+  </si>
+  <si>
+    <t>Баталгаажуулсан огноо цаг</t>
+  </si>
+  <si>
+    <t>Баталгаажуулсан тайлбар</t>
+  </si>
+  <si>
+    <t>Баталгаажуулсан хэрэглэгч</t>
+  </si>
+  <si>
+    <t>SaleDateTime</t>
+  </si>
+  <si>
+    <t>SalesNo</t>
+  </si>
+  <si>
+    <t>Борлуулалтын дугаар</t>
+  </si>
+  <si>
+    <t>Борлуулсан огноо, цаг минут</t>
+  </si>
+  <si>
+    <t>Үүсэгсэн огноо цаг минут</t>
+  </si>
+  <si>
+    <t>QtyMin</t>
+  </si>
+  <si>
+    <t>QtyMax</t>
+  </si>
+  <si>
+    <t>Тоо ширхэгийн доод хязгаар</t>
+  </si>
+  <si>
+    <t>Тоо ширхэгийн дээд хязгаар</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>бараа үйлчилгээний үнэ</t>
+  </si>
+  <si>
+    <t>OrderProductPrice</t>
+  </si>
+  <si>
+    <t>Захиалгын бүтээгдэхүүний цаг бүрийн үнэ</t>
+  </si>
+  <si>
+    <t>TimeID</t>
+  </si>
+  <si>
+    <t>Цагийн ID</t>
+  </si>
+  <si>
+    <t>OrderPersonal</t>
+  </si>
+  <si>
+    <t>Захиалгын үйлчлүүлэгчидийн бүртгэл</t>
+  </si>
+  <si>
+    <t>RegisterNo</t>
+  </si>
+  <si>
+    <t>Регистрийн дугаар</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Эцэг эхийн нэр</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Харилцагчийн нэр</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Овог</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Хүйс (0 - эр, 1 - эм)</t>
+  </si>
+  <si>
+    <t>BirthDay</t>
+  </si>
+  <si>
+    <t>Төрсөн огноо</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Майл хаяг</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Гар утасны дугаар</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Ажиллаж буй албан байгууллага</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>Харилцагчийн улсын код</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Өндөр</t>
+  </si>
+  <si>
+    <t>FootSize</t>
+  </si>
+  <si>
+    <t>Гутлын хэмжээ</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>OrderPersonalProduct</t>
+  </si>
+  <si>
+    <t>Захиалгын харилцагчийн бүтээгдэхүүний бүртгэл</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Төхөөрөмжийн дугаар (Tag төхөөрөмжийн дугаар)</t>
+  </si>
+  <si>
+    <t>ItemNo</t>
+  </si>
+  <si>
+    <t>Дэс дугаар</t>
+  </si>
+  <si>
+    <t>Сувагын ID 
+0 - Терминал
+1 - Web
+2 - Mobile</t>
   </si>
 </sst>
 </file>
@@ -397,13 +617,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +637,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -425,11 +652,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -444,13 +682,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -464,12 +696,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -479,27 +705,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="77">
     <dxf>
       <font>
         <strike val="0"/>
@@ -940,6 +1199,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -953,20 +1231,478 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1083,7 +1819,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table462697123127" displayName="Table462697123127" ref="B2:J27" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table462697123127" displayName="Table462697123127" ref="B2:J48" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <tableColumns count="9">
     <tableColumn id="1" name="№" dataDxfId="41"/>
     <tableColumn id="2" name="FieldName" dataDxfId="40"/>
@@ -1092,15 +1828,66 @@
     <tableColumn id="5" name="Length" dataDxfId="37"/>
     <tableColumn id="6" name="Key" dataDxfId="36"/>
     <tableColumn id="7" name="Nullable" dataDxfId="35"/>
-    <tableColumn id="8" name="Default" dataDxfId="34"/>
-    <tableColumn id="9" name="Comment" dataDxfId="33"/>
+    <tableColumn id="8" name="Default" dataDxfId="33"/>
+    <tableColumn id="9" name="Comment" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table452596124125126128130" displayName="Table452596124125126128130" ref="B31:J35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table452596124125126128130" displayName="Table452596124125126128130" ref="B52:J62" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <tableColumns count="9">
+    <tableColumn id="1" name="№" dataDxfId="72"/>
+    <tableColumn id="2" name="FieldName" dataDxfId="71"/>
+    <tableColumn id="3" name="FieldDesc" dataDxfId="70"/>
+    <tableColumn id="4" name="Type" dataDxfId="69"/>
+    <tableColumn id="5" name="Length" dataDxfId="68"/>
+    <tableColumn id="6" name="Key" dataDxfId="67"/>
+    <tableColumn id="7" name="Nullable" dataDxfId="66"/>
+    <tableColumn id="8" name="Default" dataDxfId="65"/>
+    <tableColumn id="9" name="Comment" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4525961241251261281301562" displayName="Table4525961241251261281301562" ref="B113:J119" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <tableColumns count="9">
+    <tableColumn id="1" name="№" dataDxfId="61"/>
+    <tableColumn id="2" name="FieldName" dataDxfId="60"/>
+    <tableColumn id="3" name="FieldDesc" dataDxfId="59"/>
+    <tableColumn id="4" name="Type" dataDxfId="58"/>
+    <tableColumn id="5" name="Length" dataDxfId="57"/>
+    <tableColumn id="6" name="Key" dataDxfId="56"/>
+    <tableColumn id="7" name="Nullable" dataDxfId="55"/>
+    <tableColumn id="8" name="Default" dataDxfId="54"/>
+    <tableColumn id="9" name="Comment" dataDxfId="53"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table45259612412512612813015623" displayName="Table45259612412512612813015623" ref="B123:J127" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <tableColumns count="9">
+    <tableColumn id="1" name="№" dataDxfId="50"/>
+    <tableColumn id="2" name="FieldName" dataDxfId="49"/>
+    <tableColumn id="3" name="FieldDesc" dataDxfId="48"/>
+    <tableColumn id="4" name="Type" dataDxfId="47"/>
+    <tableColumn id="5" name="Length" dataDxfId="46"/>
+    <tableColumn id="6" name="Key" dataDxfId="45"/>
+    <tableColumn id="7" name="Nullable" dataDxfId="44"/>
+    <tableColumn id="8" name="Default" dataDxfId="43"/>
+    <tableColumn id="9" name="Comment" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4525961241251261281305" displayName="Table4525961241251261281305" ref="B66:J73" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="9">
     <tableColumn id="1" name="№" dataDxfId="30"/>
     <tableColumn id="2" name="FieldName" dataDxfId="29"/>
@@ -1116,8 +1903,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table4525961241251261281301562" displayName="Table4525961241251261281301562" ref="B39:J44" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table4525961241251261281306" displayName="Table4525961241251261281306" ref="B77:J92" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <tableColumns count="9">
     <tableColumn id="1" name="№" dataDxfId="19"/>
     <tableColumn id="2" name="FieldName" dataDxfId="18"/>
@@ -1133,8 +1920,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table45259612412512612813015623" displayName="Table45259612412512612813015623" ref="B48:J52" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table45259612412512612813057" displayName="Table45259612412512612813057" ref="B96:J101" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
     <tableColumn id="1" name="№" dataDxfId="8"/>
     <tableColumn id="2" name="FieldName" dataDxfId="7"/>
@@ -1437,65 +2224,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L54"/>
+  <dimension ref="B1:L128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U95" sqref="U95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="36" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
-        <v>35</v>
+      <c r="B1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="1" t="str">
@@ -1504,1063 +2291,2363 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="H3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L35" si="0">" "&amp;C3&amp;"  "&amp;E3&amp;"("&amp;F3&amp;") ,"</f>
+        <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F4" s="15">
+        <v>4</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F5" s="15">
         <v>20</v>
       </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="1" t="str">
-        <f t="shared" ref="L3:L26" si="0">" "&amp;C3&amp;"  "&amp;E3&amp;"("&amp;F3&amp;") ,"</f>
-        <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="G5" s="15"/>
+      <c r="H5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="10"/>
+      <c r="L5" s="1" t="str">
+        <f>" "&amp;C5&amp;"  "&amp;E5&amp;"("&amp;F5&amp;") ,"</f>
+        <v xml:space="preserve"> OrderName  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="15">
+        <v>50</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>" "&amp;C7&amp;"  "&amp;E7&amp;"("&amp;F7&amp;") ,"</f>
+        <v xml:space="preserve"> UserID  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="15">
+        <v>20</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>" "&amp;C8&amp;"  "&amp;E8&amp;"("&amp;F8&amp;") ,"</f>
+        <v xml:space="preserve"> CustNo  Number(20) ,</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="L9" s="1" t="str">
+        <f>" "&amp;C9&amp;"  "&amp;E9&amp;"("&amp;F9&amp;") ,"</f>
+        <v xml:space="preserve"> OrderType  Number(2) ,</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="L10" s="1" t="str">
+        <f t="shared" ref="L10:L17" si="1">" "&amp;C10&amp;"  "&amp;E10&amp;"("&amp;F10&amp;") ,"</f>
+        <v xml:space="preserve"> CreateDate  Date() ,</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f>" "&amp;C11&amp;"  "&amp;E11&amp;"("&amp;F11&amp;") ,"</f>
+        <v xml:space="preserve"> Status  Number(2) ,</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f>" "&amp;C12&amp;"  "&amp;E12&amp;"("&amp;F12&amp;") ,"</f>
+        <v xml:space="preserve"> CreateUser  number(5) ,</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f>" "&amp;C13&amp;"  "&amp;E13&amp;"("&amp;F13&amp;") ,"</f>
+        <v xml:space="preserve"> SalesUser  number(5) ,</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f>" "&amp;C14&amp;"  "&amp;E14&amp;"("&amp;F14&amp;") ,"</f>
+        <v xml:space="preserve"> PersonCount  Number(5) ,</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L15" si="1">" "&amp;C4&amp;"  "&amp;E4&amp;"("&amp;F4&amp;") ,"</f>
-        <v xml:space="preserve"> Status  Number(2) ,</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="str">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> CreateDate  Date() ,</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v xml:space="preserve"> StartDateTime  Date() ,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> EndDateTime  Date() ,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> PostDate  Date() ,</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> CreateUser  number(5) ,</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> SalesUser  number(5) ,</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="L9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> OrderName  Varchar2(50) ,</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> StartDate  Date() ,</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> EndDate  Date() ,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" ref="L16:L17" si="2">" "&amp;C16&amp;"  "&amp;E16&amp;"("&amp;F16&amp;") ,"</f>
-        <v xml:space="preserve"> StartTime  Date() ,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> EndTime  Date() ,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>12</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13">
+      <c r="D21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="L18" s="1" t="str">
-        <f>" "&amp;C18&amp;"  "&amp;E18&amp;"("&amp;F18&amp;") ,"</f>
-        <v xml:space="preserve"> OrderType  Number(1) ,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f>" "&amp;C19&amp;"  "&amp;E19&amp;"("&amp;F19&amp;") ,"</f>
-        <v xml:space="preserve"> OrderAmount  Number(17,2) ,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>14</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f>" "&amp;C20&amp;"  "&amp;E20&amp;"("&amp;F20&amp;") ,"</f>
-        <v xml:space="preserve"> PrepaidAmount  Number(17,2) ,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>15</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="8">
-        <v>3</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>43</v>
+      <c r="J21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>" "&amp;C21&amp;"  "&amp;E21&amp;"("&amp;F21&amp;") ,"</f>
+        <v xml:space="preserve"> OrderAmount  Number(17,2) ,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" ref="L22:L23" si="2">" "&amp;C22&amp;"  "&amp;E22&amp;"("&amp;F22&amp;") ,"</f>
+        <v xml:space="preserve"> OrderAmountMin  Number(17,2) ,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> OrderAmountMax  Number(17,2) ,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>" "&amp;C25&amp;"  "&amp;E25&amp;"("&amp;F25&amp;") ,"</f>
+        <v xml:space="preserve"> PrepaidAmount  Number(17,2) ,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="15">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>" "&amp;C26&amp;"  "&amp;E26&amp;"("&amp;F26&amp;") ,"</f>
         <v xml:space="preserve"> CurCode  Varchar2(3) ,</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+    <row r="27" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F27" s="15">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="15"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="15">
+        <v>4</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="15"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="2:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="15"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="8">
-        <v>20</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> CustNo  Number(20) ,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <v>17</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="8">
-        <v>5</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f>" "&amp;C23&amp;"  "&amp;E23&amp;"("&amp;F23&amp;") ,"</f>
-        <v xml:space="preserve"> PersonCount  Number(5) ,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <v>18</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="1" t="str">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> CancelDateTime  Date() ,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>19</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="8" t="s">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F34" s="15">
         <v>100</v>
       </c>
-      <c r="L25" s="1" t="str">
+      <c r="G34" s="15"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="15"/>
+      <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> CancelNote  nVarchar2(100) ,</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="8" t="s">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F35" s="15">
         <v>5</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="1" t="str">
+      <c r="G35" s="15"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> CancelUserNo  number(5) ,</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="5">
-        <v>21</v>
-      </c>
-      <c r="C27" s="18" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="15"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" ref="L37:L39" si="3">" "&amp;C37&amp;"  "&amp;E37&amp;"("&amp;F37&amp;") ,"</f>
+        <v xml:space="preserve"> ExpireDateTime  Date() ,</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="15">
+        <v>100</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="15"/>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ExpireNote  nVarchar2(100) ,</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="15">
+        <v>5</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ExpireUserNo  number(5) ,</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="15"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" ref="L41:L43" si="4">" "&amp;C41&amp;"  "&amp;E41&amp;"("&amp;F41&amp;") ,"</f>
+        <v xml:space="preserve"> ConfirmDateTime  Date() ,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="15">
+        <v>100</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="15"/>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ConfirmNote  nVarchar2(100) ,</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="15">
+        <v>5</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ConfirmUserNo  number(5) ,</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="15"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" ref="L45:L46" si="5">" "&amp;C45&amp;"  "&amp;E45&amp;"("&amp;F45&amp;") ,"</f>
+        <v xml:space="preserve"> SaleDateTime  Date() ,</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="15">
+        <v>100</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="15"/>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> SalesNo  nVarchar2(100) ,</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="15"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="15"/>
+      <c r="C48" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="D48" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="23">
         <v>20</v>
       </c>
-      <c r="L27" s="1" t="str">
-        <f t="shared" ref="L27" si="3">" "&amp;C27&amp;"  "&amp;E27&amp;"("&amp;F27&amp;") ,"</f>
+      <c r="G48" s="15"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="15"/>
+      <c r="L48" s="1" t="str">
+        <f t="shared" ref="L48" si="6">" "&amp;C48&amp;"  "&amp;E48&amp;"("&amp;F48&amp;") ,"</f>
         <v xml:space="preserve"> ContractNo  nvarchar2(20) ,</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="1" t="str">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="1" t="str">
         <f>"PRIMARY KEY (OrderNo)"</f>
         <v>PRIMARY KEY (OrderNo)</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="1" t="s">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H52" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="1" t="str">
-        <f>"create table "&amp;B30&amp;" ("</f>
+      <c r="L52" s="1" t="str">
+        <f>"create table "&amp;B51&amp;" ("</f>
         <v>create table OrderProduct (</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F53" s="9">
         <v>20</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G53" s="9">
         <v>1</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f>" "&amp;C32&amp;"  "&amp;E32&amp;"("&amp;F32&amp;") ,"</f>
+      <c r="J53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f>" "&amp;C53&amp;"  "&amp;E53&amp;"("&amp;F53&amp;") ,"</f>
         <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="9">
+        <v>20</v>
+      </c>
+      <c r="G54" s="9">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f>" "&amp;C54&amp;"  "&amp;E54&amp;"("&amp;F54&amp;") ,"</f>
+        <v xml:space="preserve"> ProdNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="6">
+        <v>3</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>4</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f>" "&amp;C55&amp;"  "&amp;E55&amp;"("&amp;F55&amp;") ,"</f>
+        <v xml:space="preserve"> ProdType  Number(2) ,</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="6">
+        <v>4</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="11">
-        <v>20</v>
-      </c>
-      <c r="G33" s="11">
-        <v>3</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f>" "&amp;C33&amp;"  "&amp;E33&amp;"("&amp;F33&amp;") ,"</f>
-        <v xml:space="preserve"> ProdNo  Varchar2(20) ,</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f>" "&amp;C56&amp;"  "&amp;E56&amp;"("&amp;F56&amp;") ,"</f>
+        <v xml:space="preserve"> Qty  Number(17,2) ,</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="2:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="15">
         <v>2</v>
       </c>
-      <c r="G34" s="11">
-        <v>4</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f>" "&amp;C34&amp;"  "&amp;E34&amp;"("&amp;F34&amp;") ,"</f>
-        <v xml:space="preserve"> ProdType  Number(2) ,</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="8">
-        <v>5</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f>" "&amp;C35&amp;"  "&amp;E35&amp;"("&amp;F35&amp;") ,"</f>
-        <v xml:space="preserve"> Qty  Number(5) ,</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="1" t="str">
+      <c r="G59" s="15"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D62" s="7"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="1" t="str">
         <f>"PRIMARY KEY (OrderNo, GroupNo, ProdNo, ProdType)"</f>
         <v>PRIMARY KEY (OrderNo, GroupNo, ProdNo, ProdType)</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="1" t="s">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="1" t="str">
+        <f>"create table "&amp;B65&amp;" ("</f>
+        <v>create table OrderProductPrice (</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="9">
+        <v>20</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="1" t="str">
+        <f>" "&amp;C67&amp;"  "&amp;E67&amp;"("&amp;F67&amp;") ,"</f>
+        <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="6">
+        <v>2</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="9">
+        <v>20</v>
+      </c>
+      <c r="G68" s="9">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1" t="str">
+        <f>" "&amp;C68&amp;"  "&amp;E68&amp;"("&amp;F68&amp;") ,"</f>
+        <v xml:space="preserve"> ProdNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
+        <v>3</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2</v>
+      </c>
+      <c r="G69" s="9">
+        <v>4</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" s="1" t="str">
+        <f>" "&amp;C69&amp;"  "&amp;E69&amp;"("&amp;F69&amp;") ,"</f>
+        <v xml:space="preserve"> ProdType  Number(2) ,</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="26">
+        <v>4</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="28">
+        <v>4</v>
+      </c>
+      <c r="G70" s="26"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="26">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L70" s="1" t="str">
+        <f>" "&amp;C70&amp;"  "&amp;E70&amp;"("&amp;F70&amp;") ,"</f>
+        <v xml:space="preserve"> TimeID  Number(4) ,</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="B71" s="15">
+        <v>5</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="15">
+        <v>2</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="15">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="15">
+        <v>6</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="6">
+        <v>7</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="15">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L74" s="1" t="str">
+        <f>"PRIMARY KEY (OrderNo, GroupNo, ProdNo, ProdType)"</f>
+        <v>PRIMARY KEY (OrderNo, GroupNo, ProdNo, ProdType)</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77" s="1" t="str">
+        <f>"create table "&amp;B76&amp;" ("</f>
+        <v>create table OrderPersonal (</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="6">
+        <v>1</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="9">
+        <v>20</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L78" s="1" t="str">
+        <f>" "&amp;C78&amp;"  "&amp;E78&amp;"("&amp;F78&amp;") ,"</f>
+        <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="9">
+        <v>4</v>
+      </c>
+      <c r="G79" s="9">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="6">
+        <v>3</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="6">
+        <v>50</v>
+      </c>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="6">
+        <v>100</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="6">
+        <v>5</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="6">
+        <v>100</v>
+      </c>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="6">
+        <v>6</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="6">
+        <v>100</v>
+      </c>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="6">
+        <v>7</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <v>8</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
+        <v>9</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="6">
+        <v>100</v>
+      </c>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <v>10</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="6">
+        <v>12</v>
+      </c>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="6">
+        <v>11</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="6">
+        <v>100</v>
+      </c>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
+        <v>12</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6">
+        <v>4</v>
+      </c>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>13</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="6">
+        <v>3</v>
+      </c>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
+        <v>14</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <v>15</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="13">
+        <v>20</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="1" t="str">
+        <f>"PRIMARY KEY (OrderNo, GroupNo, ProdNo, ProdType)"</f>
+        <v>PRIMARY KEY (OrderNo, GroupNo, ProdNo, ProdType)</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L96" s="1" t="str">
+        <f>"create table "&amp;B95&amp;" ("</f>
+        <v>create table OrderPersonalProduct (</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>1</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="9">
+        <v>20</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L97" s="1" t="str">
+        <f>" "&amp;C97&amp;"  "&amp;E97&amp;"("&amp;F97&amp;") ,"</f>
+        <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <v>2</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="9">
+        <v>4</v>
+      </c>
+      <c r="G98" s="9">
+        <v>2</v>
+      </c>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>3</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="9">
+        <v>20</v>
+      </c>
+      <c r="G99" s="9">
+        <v>3</v>
+      </c>
+      <c r="L99" s="1" t="str">
+        <f>" "&amp;C99&amp;"  "&amp;E99&amp;"("&amp;F99&amp;") ,"</f>
+        <v xml:space="preserve"> ProdNo  Varchar2(20) ,</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <v>4</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="9">
+        <v>2</v>
+      </c>
+      <c r="G100" s="9">
+        <v>4</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L100" s="1" t="str">
+        <f>" "&amp;C100&amp;"  "&amp;E100&amp;"("&amp;F100&amp;") ,"</f>
+        <v xml:space="preserve"> ProdType  Number(2) ,</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <v>4</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f>" "&amp;C101&amp;"  "&amp;E101&amp;"("&amp;F101&amp;") ,"</f>
+        <v xml:space="preserve"> Qty  Number(17,2) ,</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L102" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" s="1" t="str">
+        <f>"create table "&amp;B112&amp;" ("</f>
+        <v>create table OrderTimeTable (</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="9">
+        <v>1</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="9">
+        <v>10</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="J114" s="11"/>
+      <c r="L114" s="14"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <v>2</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="E115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="6">
+        <v>4</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f>" "&amp;C115&amp;"  "&amp;E115&amp;"("&amp;F115&amp;") ,"</f>
+        <v xml:space="preserve"> TimeTableNo  number(4) ,</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B116" s="6">
+        <v>3</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="6">
+        <v>5</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" ref="L116:L118" si="7">" "&amp;C116&amp;"  "&amp;E116&amp;"("&amp;F116&amp;") ,"</f>
+        <v xml:space="preserve"> LineNumber  number(5) ,</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="6">
+        <v>4</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> StartDateTime  date() ,</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="6">
+        <v>5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> EndDateTime  date() ,</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="6">
+        <v>6</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="6">
+        <v>20</v>
+      </c>
+      <c r="G119" s="6">
         <v>1</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f>"create table "&amp;B38&amp;" ("</f>
-        <v>create table OrderTimeTable (</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
-        <v>1</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="11">
-        <v>20</v>
-      </c>
-      <c r="G40" s="11">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f>" "&amp;C40&amp;"  "&amp;E40&amp;"("&amp;F40&amp;") ,"</f>
+      <c r="J119" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L119" s="1" t="str">
+        <f>" "&amp;C119&amp;"  "&amp;E119&amp;"("&amp;F119&amp;") ,"</f>
         <v xml:space="preserve"> OrderNo  Varchar2(20) ,</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
-        <v>2</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="11">
-        <v>4</v>
-      </c>
-      <c r="G41" s="11">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f>" "&amp;C41&amp;"  "&amp;E41&amp;"("&amp;F41&amp;") ,"</f>
-        <v xml:space="preserve"> TimeTableNo  number(4) ,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
-        <v>3</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="11">
-        <v>5</v>
-      </c>
-      <c r="G42" s="11">
-        <v>3</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L42" s="1" t="str">
-        <f t="shared" ref="L42:L44" si="4">" "&amp;C42&amp;"  "&amp;E42&amp;"("&amp;F42&amp;") ,"</f>
-        <v xml:space="preserve"> LineNumber  number(5) ,</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L43" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> StartDateTime  date() ,</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> EndDateTime  date() ,</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L45" s="1" t="str">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L120" s="1" t="str">
         <f>"PRIMARY KEY (ProdType, ProdNo, LineNumber, OrderNo, SalesNo, StartDate)"</f>
         <v>PRIMARY KEY (ProdType, ProdNo, LineNumber, OrderNo, SalesNo, StartDate)</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C123" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D123" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E123" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F123" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G123" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H123" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="1" t="str">
-        <f>"create table "&amp;B47&amp;" ("</f>
+      <c r="L123" s="1" t="str">
+        <f>"create table "&amp;B122&amp;" ("</f>
         <v>create table PATimeTable (</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="6">
         <v>1</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="C124" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F124" s="9">
         <v>4</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G124" s="9">
         <v>1</v>
       </c>
-      <c r="L49" s="1" t="str">
-        <f>" "&amp;C49&amp;"  "&amp;E49&amp;"("&amp;F49&amp;") ,"</f>
+      <c r="L124" s="1" t="str">
+        <f>" "&amp;C124&amp;"  "&amp;E124&amp;"("&amp;F124&amp;") ,"</f>
         <v xml:space="preserve"> TimeTableNo  number(4) ,</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="6">
         <v>2</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="8">
+      <c r="C125" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F125" s="6">
         <v>30</v>
       </c>
-      <c r="L50" s="1" t="str">
-        <f>" "&amp;C50&amp;"  "&amp;E50&amp;"("&amp;F50&amp;") ,"</f>
+      <c r="L125" s="1" t="str">
+        <f>" "&amp;C125&amp;"  "&amp;E125&amp;"("&amp;F125&amp;") ,"</f>
         <v xml:space="preserve"> Name  nvarchar2(30) ,</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="6">
         <v>3</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="C126" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F126" s="6">
         <v>30</v>
       </c>
-      <c r="L51" s="1" t="str">
-        <f>" "&amp;C51&amp;"  "&amp;E51&amp;"("&amp;F51&amp;") ,"</f>
+      <c r="L126" s="1" t="str">
+        <f>" "&amp;C126&amp;"  "&amp;E126&amp;"("&amp;F126&amp;") ,"</f>
         <v xml:space="preserve"> Name2  nvarchar2(30) ,</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+    <row r="127" spans="2:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="6">
         <v>4</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="C127" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F127" s="6">
         <v>5</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L52" s="1" t="str">
-        <f t="shared" ref="L52" si="5">" "&amp;C52&amp;"  "&amp;E52&amp;"("&amp;F52&amp;") ,"</f>
+      <c r="J127" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L127" s="1" t="str">
+        <f t="shared" ref="L127" si="8">" "&amp;C127&amp;"  "&amp;E127&amp;"("&amp;F127&amp;") ,"</f>
         <v xml:space="preserve"> Count  number(5) ,</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L53" s="1" t="str">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L128" s="1" t="str">
         <f>"PRIMARY KEY (ProdType, ProdNo, LineNumber, OrderNo, SalesNo, StartDate)"</f>
         <v>PRIMARY KEY (ProdType, ProdNo, LineNumber, OrderNo, SalesNo, StartDate)</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L54" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2570,7 +4657,7 @@
   <dimension ref="F1:J1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>

--- a/Document/Table_Order.xlsx
+++ b/Document/Table_Order.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Print" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -323,11 +323,6 @@
     <t>PriceType</t>
   </si>
   <si>
-    <t>Үнээ захиалгын дагуу явах эсэх
-0 - Захиалгын дагуу үнэ байхгүй. Үйлчилгээ авах үеийнхээр
-1 - Захиалгын дагуу үнээр борлуулалт хийнэ</t>
-  </si>
-  <si>
     <t>DiscountID</t>
   </si>
   <si>
@@ -543,6 +538,11 @@
   </si>
   <si>
     <t>Бараа үйлчилгээний үнэ</t>
+  </si>
+  <si>
+    <t>Үнэ захиалгын дагуу явах эсэх
+0 - Захиалгын дагуу үнэ байхгүй. Үйлчилгээ авах үеийнхээр
+1 - Захиалгын дагуу үнээр борлуулалт хийнэ</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -703,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2016,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E43:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2120,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
@@ -2142,10 +2145,10 @@
         <v>62</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="11" t="s">
@@ -2155,7 +2158,7 @@
       <c r="J5" s="12"/>
       <c r="L5" s="8" t="str">
         <f>" "&amp;C5&amp;"  "&amp;E5&amp;"("&amp;F5&amp;") ,"</f>
-        <v xml:space="preserve"> OrderName  Varchar2(20) ,</v>
+        <v xml:space="preserve"> OrderName  nVarchar2(50) ,</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2218,7 +2221,7 @@
         <v>96</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
@@ -2231,7 +2234,7 @@
       </c>
       <c r="L8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> CustNo  Varchar2(20) ,</v>
+        <v xml:space="preserve"> CustNo  Number(20) ,</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="33.75" x14ac:dyDescent="0.25">
@@ -2269,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>17</v>
@@ -2458,11 +2461,11 @@
       <c r="D17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>33</v>
+      <c r="F17" s="26">
+        <v>17</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="11"/>
@@ -2482,11 +2485,11 @@
       <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>33</v>
+      <c r="F18" s="26">
+        <v>17</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="11"/>
@@ -2593,8 +2596,12 @@
       <c r="D22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="11"/>
       <c r="I22" s="9">
@@ -2666,7 +2673,7 @@
         <v>98</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>16</v>
@@ -2686,10 +2693,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>16</v>
@@ -2707,10 +2714,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>16</v>
@@ -2730,10 +2737,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>16</v>
@@ -2829,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>17</v>
@@ -2854,10 +2861,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>11</v>
@@ -2878,10 +2885,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>14</v>
@@ -2905,10 +2912,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>17</v>
@@ -2930,10 +2937,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>11</v>
@@ -2954,10 +2961,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>14</v>
@@ -2981,10 +2988,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>17</v>
@@ -3006,10 +3013,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
@@ -3164,7 +3171,7 @@
         <v>29</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>16</v>
@@ -3216,10 +3223,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>16</v>
@@ -3237,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
@@ -3258,10 +3265,10 @@
         <v>7</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>16</v>
@@ -3281,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>16</v>
@@ -3304,10 +3311,10 @@
         <v>9</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>16</v>
@@ -3335,11 +3342,11 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -3437,7 +3444,7 @@
         <v>29</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>16</v>
@@ -3462,10 +3469,10 @@
         <v>4</v>
       </c>
       <c r="C61" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="23" t="s">
         <v>164</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>165</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>10</v>
@@ -3493,10 +3500,10 @@
         <v>5</v>
       </c>
       <c r="C62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>16</v>
@@ -3516,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>16</v>
@@ -3539,10 +3546,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>16</v>
@@ -3570,11 +3577,11 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -3642,10 +3649,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>14</v>
@@ -3663,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>65</v>
@@ -3681,10 +3688,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>65</v>
@@ -3702,10 +3709,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>65</v>
@@ -3720,10 +3727,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>65</v>
@@ -3738,10 +3745,10 @@
         <v>7</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>14</v>
@@ -3756,10 +3763,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>59</v>
@@ -3771,10 +3778,10 @@
         <v>9</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>65</v>
@@ -3789,10 +3796,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -3807,10 +3814,10 @@
         <v>11</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>65</v>
@@ -3825,10 +3832,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -3843,10 +3850,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>14</v>
@@ -3861,16 +3868,16 @@
         <v>14</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L82" s="8"/>
     </row>
@@ -3879,10 +3886,10 @@
         <v>15</v>
       </c>
       <c r="C83" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>160</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>10</v>
@@ -3906,11 +3913,11 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
@@ -3978,10 +3985,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>14</v>
@@ -4132,7 +4139,7 @@
         <v>78</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>10</v>
@@ -4239,7 +4246,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>10</v>

--- a/Document/Table_Order.xlsx
+++ b/Document/Table_Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Print" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
